--- a/data/trans_dic/P54_A_7_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P54_A_7_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -531,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se encuentra preocupada por sufrir saturación de los servicios sanitarios o ya le ha ocurrido</t>
+          <t>Población que se encuentra preocupada por sufrir saturación de los servicios sanitarios o ya le ha ocurrido (tasa de respuesta: 98,23%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>5,65%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,11%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,4%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,24%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,05%</t>
         </is>
       </c>
     </row>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>4,15; 7,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0,69; 2,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>5,25; 9,37</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>0,13; 1,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>1,76; 4,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>5,19; 7,84</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>0,07; 0,67</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>1,38; 2,83</t>
         </is>
       </c>
     </row>
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>4,97%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1,13%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>7,16%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1,61%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>6,05%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,37%</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>3,48; 7,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>0,53; 2,53</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>5,34; 9,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>0,79; 2,77</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>4,81; 7,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>0,8; 2,12</t>
         </is>
       </c>
     </row>
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>4,56%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3,55%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>3,24%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0,55%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>3,9%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,1%</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,57</t>
+          <t>1,71; 9,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,31</t>
+          <t>1,3; 8,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,18</t>
+          <t>1,22; 7,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,15</t>
+          <t>0,0; 2,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,68</t>
+          <t>2,16; 6,86</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>0,8; 4,71</t>
         </is>
       </c>
     </row>
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>5,25%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,23%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,12%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,79%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>4,16; 6,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>0,98; 2,34</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>5,45; 8,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>0,06; 0,68</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>1,43; 2,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>5,1; 7,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>0,03; 0,35</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,31; 2,31</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1072,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se encuentra preocupada por sufrir saturación de los servicios sanitarios o ya le ha ocurrido (tasa de respuesta: 98,23%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>87656</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>22142</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>117563</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>8043</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>47985</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>205219</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>8043</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>70126</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>64343; 120255</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>11235; 40546</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>86873; 154832</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2264; 23798</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>31624; 72145</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>166186; 251103</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2246; 22923</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>47314; 96627</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>64364</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>15389</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>89843</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>21781</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>154206</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>37171</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>45053; 92277</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>7214; 34506</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>66953; 120219</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>10742; 37613</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>122650; 193652</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>21624; 57659</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>17363</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>14791</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>12112</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>2171</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>29476</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>16962</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>6517; 36642</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>5417; 36432</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4555; 26307</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 10912</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>16342; 51783</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>6505; 38063</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>169384</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>52323</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>219518</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>8043</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>71936</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>388901</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>8043</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>124259</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>134273; 212542</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>33191; 79749</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>178883; 267993</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>2273; 24133</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>50695; 100713</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>331984; 455478</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>2265; 24192</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>90895; 160607</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>